--- a/2021-06 New South Wales Outbreak Paths by Area.xlsx
+++ b/2021-06 New South Wales Outbreak Paths by Area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7CC2DD-05E9-4B30-9CF0-7055DCE671C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE1177-007F-473F-870E-711BD9607C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -141,30 +141,6 @@
     <t>#f3f6ff</t>
   </si>
   <si>
-    <t>#dee6ff</t>
-  </si>
-  <si>
-    <t>#c5d4ff</t>
-  </si>
-  <si>
-    <t>#bbceff</t>
-  </si>
-  <si>
-    <t>#b7cbff</t>
-  </si>
-  <si>
-    <t>#9fbcff</t>
-  </si>
-  <si>
-    <t>#90b4ff</t>
-  </si>
-  <si>
-    <t>#7fabff</t>
-  </si>
-  <si>
-    <t>#4395ff</t>
-  </si>
-  <si>
     <t>#fcfdff</t>
   </si>
   <si>
@@ -177,121 +153,148 @@
     <t>#f0f4ff</t>
   </si>
   <si>
-    <t>#edf1ff</t>
-  </si>
-  <si>
-    <t>#eaefff</t>
-  </si>
-  <si>
-    <t>#e7edff</t>
-  </si>
-  <si>
-    <t>#e4eaff</t>
-  </si>
-  <si>
-    <t>#e1e8ff</t>
-  </si>
-  <si>
-    <t>#dbe4ff</t>
-  </si>
-  <si>
-    <t>#d8e1ff</t>
-  </si>
-  <si>
-    <t>#d5dfff</t>
-  </si>
-  <si>
-    <t>#d1ddff</t>
-  </si>
-  <si>
-    <t>#cedbff</t>
-  </si>
-  <si>
-    <t>#cbd9ff</t>
-  </si>
-  <si>
-    <t>#c8d6ff</t>
-  </si>
-  <si>
-    <t>#c1d2ff</t>
-  </si>
-  <si>
-    <t>#bed0ff</t>
-  </si>
-  <si>
-    <t>#b4c9ff</t>
-  </si>
-  <si>
-    <t>#b0c7ff</t>
-  </si>
-  <si>
-    <t>#adc5ff</t>
-  </si>
-  <si>
-    <t>#aac3ff</t>
-  </si>
-  <si>
-    <t>#a6c1ff</t>
-  </si>
-  <si>
-    <t>#a2beff</t>
-  </si>
-  <si>
-    <t>#9bbaff</t>
-  </si>
-  <si>
-    <t>#97b8ff</t>
-  </si>
-  <si>
-    <t>#93b6ff</t>
-  </si>
-  <si>
-    <t>#8cb2ff</t>
-  </si>
-  <si>
-    <t>#88b0ff</t>
-  </si>
-  <si>
-    <t>#83adff</t>
-  </si>
-  <si>
-    <t>#7ba9ff</t>
-  </si>
-  <si>
-    <t>#76a7ff</t>
-  </si>
-  <si>
-    <t>#72a5ff</t>
-  </si>
-  <si>
-    <t>#6da3ff</t>
-  </si>
-  <si>
-    <t>#68a1ff</t>
-  </si>
-  <si>
-    <t>#639fff</t>
-  </si>
-  <si>
-    <t>#5d9dff</t>
-  </si>
-  <si>
-    <t>#579bff</t>
-  </si>
-  <si>
-    <t>#5199ff</t>
-  </si>
-  <si>
     <t>#4a97ff</t>
   </si>
   <si>
     <t>#3a93ff</t>
   </si>
   <si>
-    <t>#3191ff</t>
-  </si>
-  <si>
     <t>#248fff</t>
+  </si>
+  <si>
+    <t>#edf2ff</t>
+  </si>
+  <si>
+    <t>#ebefff</t>
+  </si>
+  <si>
+    <t>#e8edff</t>
+  </si>
+  <si>
+    <t>#e5ebff</t>
+  </si>
+  <si>
+    <t>#e2e9ff</t>
+  </si>
+  <si>
+    <t>#dfe6ff</t>
+  </si>
+  <si>
+    <t>#dce4ff</t>
+  </si>
+  <si>
+    <t>#d8e2ff</t>
+  </si>
+  <si>
+    <t>#d5e0ff</t>
+  </si>
+  <si>
+    <t>#d2deff</t>
+  </si>
+  <si>
+    <t>#cfdbff</t>
+  </si>
+  <si>
+    <t>#ccd9ff</t>
+  </si>
+  <si>
+    <t>#c9d7ff</t>
+  </si>
+  <si>
+    <t>#c6d5ff</t>
+  </si>
+  <si>
+    <t>#c3d3ff</t>
+  </si>
+  <si>
+    <t>#bfd1ff</t>
+  </si>
+  <si>
+    <t>#bcceff</t>
+  </si>
+  <si>
+    <t>#b9ccff</t>
+  </si>
+  <si>
+    <t>#b5caff</t>
+  </si>
+  <si>
+    <t>#b2c8ff</t>
+  </si>
+  <si>
+    <t>#afc6ff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#a8c2ff</t>
+  </si>
+  <si>
+    <t>#a4c0ff</t>
+  </si>
+  <si>
+    <t>#a1bdff</t>
+  </si>
+  <si>
+    <t>#9dbbff</t>
+  </si>
+  <si>
+    <t>#9ab9ff</t>
+  </si>
+  <si>
+    <t>#96b7ff</t>
+  </si>
+  <si>
+    <t>#92b5ff</t>
+  </si>
+  <si>
+    <t>#8eb3ff</t>
+  </si>
+  <si>
+    <t>#8ab1ff</t>
+  </si>
+  <si>
+    <t>#86afff</t>
+  </si>
+  <si>
+    <t>#82adff</t>
+  </si>
+  <si>
+    <t>#7eabff</t>
+  </si>
+  <si>
+    <t>#7aa9ff</t>
+  </si>
+  <si>
+    <t>#75a7ff</t>
+  </si>
+  <si>
+    <t>#71a5ff</t>
+  </si>
+  <si>
+    <t>#6ca3ff</t>
+  </si>
+  <si>
+    <t>#67a1ff</t>
+  </si>
+  <si>
+    <t>#629fff</t>
+  </si>
+  <si>
+    <t>#5c9dff</t>
+  </si>
+  <si>
+    <t>#569bff</t>
+  </si>
+  <si>
+    <t>#5099ff</t>
+  </si>
+  <si>
+    <t>#4295ff</t>
+  </si>
+  <si>
+    <t>#3091ff</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
         <v>44348</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -707,7 +710,7 @@
         <v>44349</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,7 +721,7 @@
         <v>44350</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -740,7 +743,7 @@
         <v>44352</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -751,7 +754,7 @@
         <v>44353</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -762,7 +765,7 @@
         <v>44354</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -773,7 +776,7 @@
         <v>44355</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -784,7 +787,7 @@
         <v>44356</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -795,7 +798,7 @@
         <v>44357</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -806,7 +809,7 @@
         <v>44358</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -817,7 +820,7 @@
         <v>44359</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -828,7 +831,7 @@
         <v>44360</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -839,7 +842,7 @@
         <v>44361</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -850,7 +853,7 @@
         <v>44362</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -864,7 +867,7 @@
         <v>44363</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -878,7 +881,7 @@
         <v>44364</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -892,7 +895,7 @@
         <v>44365</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -906,7 +909,7 @@
         <v>44366</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -920,7 +923,7 @@
         <v>44367</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -934,7 +937,7 @@
         <v>44368</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -948,7 +951,7 @@
         <v>44369</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -962,7 +965,7 @@
         <v>44370</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -976,7 +979,7 @@
         <v>44371</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -990,7 +993,7 @@
         <v>44372</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1004,7 +1007,7 @@
         <v>44373</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1018,7 +1021,7 @@
         <v>44374</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1032,7 +1035,7 @@
         <v>44375</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -1046,7 +1049,7 @@
         <v>44376</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1060,7 +1063,7 @@
         <v>44377</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1116,7 +1119,7 @@
         <v>44381</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
@@ -1130,7 +1133,7 @@
         <v>44382</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -1144,7 +1147,7 @@
         <v>44383</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1158,7 +1161,7 @@
         <v>44384</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1172,7 +1175,7 @@
         <v>44385</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -1186,7 +1189,7 @@
         <v>44386</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -1200,7 +1203,7 @@
         <v>44387</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -1214,7 +1217,7 @@
         <v>44388</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
@@ -1228,7 +1231,7 @@
         <v>44389</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
@@ -1242,7 +1245,7 @@
         <v>44390</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
@@ -1256,7 +1259,7 @@
         <v>44391</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1270,7 +1273,7 @@
         <v>44392</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -1284,7 +1287,7 @@
         <v>44393</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1298,7 +1301,7 @@
         <v>44394</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1312,7 +1315,7 @@
         <v>44395</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1326,7 +1329,7 @@
         <v>44396</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -1340,7 +1343,7 @@
         <v>44397</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1354,7 +1357,7 @@
         <v>44398</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -1368,7 +1371,7 @@
         <v>44399</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1382,7 +1385,7 @@
         <v>44400</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -1394,6 +1397,9 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44401</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>

--- a/2021-06 New South Wales Outbreak Paths by Area.xlsx
+++ b/2021-06 New South Wales Outbreak Paths by Area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE1177-007F-473F-870E-711BD9607C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C041A9-62D6-4A14-A483-C66A7B9503E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -141,160 +141,118 @@
     <t>#f3f6ff</t>
   </si>
   <si>
-    <t>#fcfdff</t>
-  </si>
-  <si>
-    <t>#f9faff</t>
-  </si>
-  <si>
-    <t>#f6f8ff</t>
-  </si>
-  <si>
-    <t>#f0f4ff</t>
-  </si>
-  <si>
-    <t>#4a97ff</t>
-  </si>
-  <si>
-    <t>#3a93ff</t>
-  </si>
-  <si>
-    <t>#248fff</t>
-  </si>
-  <si>
-    <t>#edf2ff</t>
-  </si>
-  <si>
-    <t>#ebefff</t>
-  </si>
-  <si>
-    <t>#e8edff</t>
-  </si>
-  <si>
-    <t>#e5ebff</t>
-  </si>
-  <si>
-    <t>#e2e9ff</t>
-  </si>
-  <si>
-    <t>#dfe6ff</t>
-  </si>
-  <si>
-    <t>#dce4ff</t>
-  </si>
-  <si>
-    <t>#d8e2ff</t>
-  </si>
-  <si>
-    <t>#d5e0ff</t>
-  </si>
-  <si>
-    <t>#d2deff</t>
-  </si>
-  <si>
     <t>#cfdbff</t>
   </si>
   <si>
-    <t>#ccd9ff</t>
-  </si>
-  <si>
-    <t>#c9d7ff</t>
-  </si>
-  <si>
     <t>#c6d5ff</t>
   </si>
   <si>
-    <t>#c3d3ff</t>
-  </si>
-  <si>
-    <t>#bfd1ff</t>
-  </si>
-  <si>
-    <t>#bcceff</t>
-  </si>
-  <si>
     <t>#b9ccff</t>
   </si>
   <si>
-    <t>#b5caff</t>
-  </si>
-  <si>
-    <t>#b2c8ff</t>
-  </si>
-  <si>
-    <t>#afc6ff</t>
-  </si>
-  <si>
     <t>#abc4ff</t>
   </si>
   <si>
-    <t>#a8c2ff</t>
-  </si>
-  <si>
-    <t>#a4c0ff</t>
-  </si>
-  <si>
-    <t>#a1bdff</t>
-  </si>
-  <si>
     <t>#9dbbff</t>
   </si>
   <si>
-    <t>#9ab9ff</t>
-  </si>
-  <si>
-    <t>#96b7ff</t>
-  </si>
-  <si>
-    <t>#92b5ff</t>
-  </si>
-  <si>
     <t>#8eb3ff</t>
   </si>
   <si>
-    <t>#8ab1ff</t>
-  </si>
-  <si>
-    <t>#86afff</t>
-  </si>
-  <si>
-    <t>#82adff</t>
-  </si>
-  <si>
-    <t>#7eabff</t>
-  </si>
-  <si>
-    <t>#7aa9ff</t>
-  </si>
-  <si>
-    <t>#75a7ff</t>
-  </si>
-  <si>
     <t>#71a5ff</t>
   </si>
   <si>
-    <t>#6ca3ff</t>
-  </si>
-  <si>
-    <t>#67a1ff</t>
-  </si>
-  <si>
-    <t>#629fff</t>
-  </si>
-  <si>
-    <t>#5c9dff</t>
-  </si>
-  <si>
-    <t>#569bff</t>
-  </si>
-  <si>
-    <t>#5099ff</t>
-  </si>
-  <si>
-    <t>#4295ff</t>
-  </si>
-  <si>
-    <t>#3091ff</t>
+    <t>#fbfcff</t>
+  </si>
+  <si>
+    <t>#f7f9ff</t>
+  </si>
+  <si>
+    <t>#eff3ff</t>
+  </si>
+  <si>
+    <t>#ebf0ff</t>
+  </si>
+  <si>
+    <t>#e7edff</t>
+  </si>
+  <si>
+    <t>#e3eaff</t>
+  </si>
+  <si>
+    <t>#dfe7ff</t>
+  </si>
+  <si>
+    <t>#dbe4ff</t>
+  </si>
+  <si>
+    <t>#d7e1ff</t>
+  </si>
+  <si>
+    <t>#d3deff</t>
+  </si>
+  <si>
+    <t>#cad8ff</t>
+  </si>
+  <si>
+    <t>#c2d2ff</t>
+  </si>
+  <si>
+    <t>#bdcfff</t>
+  </si>
+  <si>
+    <t>#b4c9ff</t>
+  </si>
+  <si>
+    <t>#b0c7ff</t>
+  </si>
+  <si>
+    <t>#a7c1ff</t>
+  </si>
+  <si>
+    <t>#a2beff</t>
+  </si>
+  <si>
+    <t>#98b8ff</t>
+  </si>
+  <si>
+    <t>#93b6ff</t>
+  </si>
+  <si>
+    <t>#89b0ff</t>
+  </si>
+  <si>
+    <t>#83adff</t>
+  </si>
+  <si>
+    <t>#7daaff</t>
+  </si>
+  <si>
+    <t>#77a8ff</t>
+  </si>
+  <si>
+    <t>#6ba2ff</t>
+  </si>
+  <si>
+    <t>#64a0ff</t>
+  </si>
+  <si>
+    <t>#5d9dff</t>
+  </si>
+  <si>
+    <t>#559aff</t>
+  </si>
+  <si>
+    <t>#4c97ff</t>
+  </si>
+  <si>
+    <t>#4395ff</t>
+  </si>
+  <si>
+    <t>#3792ff</t>
+  </si>
+  <si>
+    <t>#2990ff</t>
   </si>
 </sst>
 </file>
@@ -361,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D71" totalsRowShown="0">
-  <autoFilter ref="A1:D71" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D56" totalsRowShown="0">
+  <autoFilter ref="A1:D56" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
@@ -670,9 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -696,10 +656,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>44348</v>
+        <v>44363</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -707,10 +670,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>44349</v>
+        <v>44364</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -718,10 +684,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>44350</v>
+        <v>44365</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -729,10 +698,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>44351</v>
+        <v>44366</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -740,10 +712,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>44352</v>
+        <v>44367</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -751,10 +726,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>44353</v>
+        <v>44368</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -762,10 +740,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>44354</v>
+        <v>44369</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -773,10 +754,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>44355</v>
+        <v>44370</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -784,10 +768,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>44356</v>
+        <v>44371</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -795,10 +782,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>44357</v>
+        <v>44372</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -806,10 +796,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>44358</v>
+        <v>44373</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -817,10 +810,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>44359</v>
+        <v>44374</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -828,10 +824,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44360</v>
+        <v>44375</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -839,10 +838,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>44361</v>
+        <v>44376</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -850,13 +852,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>44362</v>
+        <v>44377</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -864,13 +866,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>44363</v>
+        <v>44378</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -878,13 +880,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>44364</v>
+        <v>44379</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -892,13 +894,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>44365</v>
+        <v>44380</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -906,13 +908,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>44366</v>
+        <v>44381</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -920,13 +922,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>44367</v>
+        <v>44382</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -934,13 +936,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>44368</v>
+        <v>44383</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -948,13 +950,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44369</v>
+        <v>44384</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -962,13 +964,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>44370</v>
+        <v>44385</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -976,13 +978,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>44371</v>
+        <v>44386</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -990,13 +992,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>44372</v>
+        <v>44387</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1004,13 +1006,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>44373</v>
+        <v>44388</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1018,13 +1020,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>44374</v>
+        <v>44389</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -1032,13 +1034,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>44375</v>
+        <v>44390</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -1046,13 +1048,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>44376</v>
+        <v>44391</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1060,13 +1062,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>44377</v>
+        <v>44392</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -1074,13 +1076,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>44378</v>
+        <v>44393</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -1088,13 +1090,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>44379</v>
+        <v>44394</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1102,13 +1104,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>44380</v>
+        <v>44395</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -1116,13 +1118,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>44381</v>
+        <v>44396</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -1130,13 +1132,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>44382</v>
+        <v>44397</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -1144,13 +1146,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>44383</v>
+        <v>44398</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -1158,13 +1160,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>44384</v>
+        <v>44399</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -1172,13 +1174,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>44385</v>
+        <v>44400</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -1186,13 +1188,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44386</v>
+        <v>44401</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1200,13 +1202,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44387</v>
+        <v>44402</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -1214,13 +1216,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44388</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
+        <v>44403</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1228,13 +1227,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>44389</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
+        <v>44404</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -1242,13 +1238,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>44390</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
+        <v>44405</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -1256,13 +1249,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>44391</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
+        <v>44406</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -1270,13 +1260,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>44392</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
+        <v>44407</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -1284,13 +1271,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>44393</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
+        <v>44408</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -1298,13 +1282,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>44394</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
+        <v>44409</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -1312,13 +1293,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>44395</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
+        <v>44410</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -1326,13 +1304,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>44396</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
+        <v>44411</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -1340,13 +1315,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>44397</v>
-      </c>
-      <c r="B51" t="s">
-        <v>85</v>
+        <v>44412</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -1354,13 +1326,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>44398</v>
-      </c>
-      <c r="B52" t="s">
-        <v>40</v>
+        <v>44413</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
@@ -1368,13 +1337,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>44399</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
+        <v>44414</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -1382,13 +1348,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>44400</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
+        <v>44415</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -1396,13 +1359,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>44401</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
+        <v>44416</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -1410,177 +1370,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>44402</v>
+        <v>44417</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="1">
-        <v>44403</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="1">
-        <v>44404</v>
-      </c>
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="1">
-        <v>44405</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="1">
-        <v>44406</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="1">
-        <v>44407</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="1">
-        <v>44408</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
-        <v>44409</v>
-      </c>
-      <c r="C63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="1">
-        <v>44410</v>
-      </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="1">
-        <v>44411</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="1">
-        <v>44412</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="1">
-        <v>44413</v>
-      </c>
-      <c r="C67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="1">
-        <v>44414</v>
-      </c>
-      <c r="C68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="1">
-        <v>44415</v>
-      </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="1">
-        <v>44416</v>
-      </c>
-      <c r="C70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="1">
-        <v>44417</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
         <v>24</v>
       </c>
     </row>

--- a/2021-06 New South Wales Outbreak Paths by Area.xlsx
+++ b/2021-06 New South Wales Outbreak Paths by Area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C041A9-62D6-4A14-A483-C66A7B9503E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E48CA-17BE-4B0A-828C-6F7478E1ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Date Colours" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -138,121 +138,130 @@
     <t>#EF7C34</t>
   </si>
   <si>
-    <t>#f3f6ff</t>
-  </si>
-  <si>
-    <t>#cfdbff</t>
+    <t>#fbfcff</t>
+  </si>
+  <si>
+    <t>#f8f9ff</t>
+  </si>
+  <si>
+    <t>#f4f6ff</t>
+  </si>
+  <si>
+    <t>#e5ebff</t>
+  </si>
+  <si>
+    <t>#f0f4ff</t>
+  </si>
+  <si>
+    <t>#edf1ff</t>
+  </si>
+  <si>
+    <t>#e9eeff</t>
+  </si>
+  <si>
+    <t>#e1e9ff</t>
+  </si>
+  <si>
+    <t>#dee6ff</t>
+  </si>
+  <si>
+    <t>#dae3ff</t>
+  </si>
+  <si>
+    <t>#d6e0ff</t>
+  </si>
+  <si>
+    <t>#d2ddff</t>
+  </si>
+  <si>
+    <t>#cedbff</t>
+  </si>
+  <si>
+    <t>#cad8ff</t>
   </si>
   <si>
     <t>#c6d5ff</t>
   </si>
   <si>
-    <t>#b9ccff</t>
-  </si>
-  <si>
-    <t>#abc4ff</t>
-  </si>
-  <si>
-    <t>#9dbbff</t>
+    <t>#c2d3ff</t>
+  </si>
+  <si>
+    <t>#bed0ff</t>
+  </si>
+  <si>
+    <t>#bacdff</t>
+  </si>
+  <si>
+    <t>#b6caff</t>
+  </si>
+  <si>
+    <t>#b2c8ff</t>
+  </si>
+  <si>
+    <t>#adc5ff</t>
+  </si>
+  <si>
+    <t>#a9c2ff</t>
+  </si>
+  <si>
+    <t>#a5c0ff</t>
+  </si>
+  <si>
+    <t>#a0bdff</t>
+  </si>
+  <si>
+    <t>#9cbaff</t>
+  </si>
+  <si>
+    <t>#97b8ff</t>
+  </si>
+  <si>
+    <t>#92b5ff</t>
   </si>
   <si>
     <t>#8eb3ff</t>
   </si>
   <si>
-    <t>#71a5ff</t>
-  </si>
-  <si>
-    <t>#fbfcff</t>
-  </si>
-  <si>
-    <t>#f7f9ff</t>
-  </si>
-  <si>
-    <t>#eff3ff</t>
-  </si>
-  <si>
-    <t>#ebf0ff</t>
-  </si>
-  <si>
-    <t>#e7edff</t>
-  </si>
-  <si>
-    <t>#e3eaff</t>
-  </si>
-  <si>
-    <t>#dfe7ff</t>
-  </si>
-  <si>
-    <t>#dbe4ff</t>
-  </si>
-  <si>
-    <t>#d7e1ff</t>
-  </si>
-  <si>
-    <t>#d3deff</t>
-  </si>
-  <si>
-    <t>#cad8ff</t>
-  </si>
-  <si>
-    <t>#c2d2ff</t>
-  </si>
-  <si>
-    <t>#bdcfff</t>
-  </si>
-  <si>
-    <t>#b4c9ff</t>
-  </si>
-  <si>
-    <t>#b0c7ff</t>
-  </si>
-  <si>
-    <t>#a7c1ff</t>
-  </si>
-  <si>
-    <t>#a2beff</t>
-  </si>
-  <si>
-    <t>#98b8ff</t>
-  </si>
-  <si>
-    <t>#93b6ff</t>
-  </si>
-  <si>
     <t>#89b0ff</t>
   </si>
   <si>
     <t>#83adff</t>
   </si>
   <si>
-    <t>#7daaff</t>
-  </si>
-  <si>
-    <t>#77a8ff</t>
-  </si>
-  <si>
-    <t>#6ba2ff</t>
-  </si>
-  <si>
-    <t>#64a0ff</t>
-  </si>
-  <si>
-    <t>#5d9dff</t>
-  </si>
-  <si>
-    <t>#559aff</t>
-  </si>
-  <si>
-    <t>#4c97ff</t>
-  </si>
-  <si>
-    <t>#4395ff</t>
-  </si>
-  <si>
-    <t>#3792ff</t>
-  </si>
-  <si>
-    <t>#2990ff</t>
+    <t>#7eabff</t>
+  </si>
+  <si>
+    <t>#79a8ff</t>
+  </si>
+  <si>
+    <t>#73a6ff</t>
+  </si>
+  <si>
+    <t>#6da3ff</t>
+  </si>
+  <si>
+    <t>#67a1ff</t>
+  </si>
+  <si>
+    <t>#619eff</t>
+  </si>
+  <si>
+    <t>#5a9cff</t>
+  </si>
+  <si>
+    <t>#5299ff</t>
+  </si>
+  <si>
+    <t>#4a97ff</t>
+  </si>
+  <si>
+    <t>#4094ff</t>
+  </si>
+  <si>
+    <t>#3592ff</t>
+  </si>
+  <si>
+    <t>#278fff</t>
   </si>
 </sst>
 </file>
@@ -630,9 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -659,7 +666,7 @@
         <v>44363</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -673,7 +680,7 @@
         <v>44364</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -687,7 +694,7 @@
         <v>44365</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -701,7 +708,7 @@
         <v>44366</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -715,7 +722,7 @@
         <v>44367</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -729,7 +736,7 @@
         <v>44368</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -743,7 +750,7 @@
         <v>44369</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -757,7 +764,7 @@
         <v>44370</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -771,7 +778,7 @@
         <v>44371</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -785,7 +792,7 @@
         <v>44372</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -799,7 +806,7 @@
         <v>44373</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -813,7 +820,7 @@
         <v>44374</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -827,7 +834,7 @@
         <v>44375</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -841,7 +848,7 @@
         <v>44376</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -855,7 +862,7 @@
         <v>44377</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -869,7 +876,7 @@
         <v>44378</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -883,7 +890,7 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -897,7 +904,7 @@
         <v>44380</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -911,7 +918,7 @@
         <v>44381</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -925,7 +932,7 @@
         <v>44382</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -939,7 +946,7 @@
         <v>44383</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -953,7 +960,7 @@
         <v>44384</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -967,7 +974,7 @@
         <v>44385</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -981,7 +988,7 @@
         <v>44386</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -995,7 +1002,7 @@
         <v>44387</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1009,7 +1016,7 @@
         <v>44388</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1023,7 +1030,7 @@
         <v>44389</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -1037,7 +1044,7 @@
         <v>44390</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -1051,7 +1058,7 @@
         <v>44391</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1065,7 +1072,7 @@
         <v>44392</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -1079,7 +1086,7 @@
         <v>44393</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1205,7 +1212,7 @@
         <v>44402</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -1218,6 +1225,9 @@
       <c r="A42" s="1">
         <v>44403</v>
       </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
@@ -1229,6 +1239,9 @@
       <c r="A43" s="1">
         <v>44404</v>
       </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
@@ -1239,6 +1252,9 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>

--- a/2021-06 New South Wales Outbreak Paths by Area.xlsx
+++ b/2021-06 New South Wales Outbreak Paths by Area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E48CA-17BE-4B0A-828C-6F7478E1ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9CF55-6E83-4284-BAA7-F77A48D88189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="1463" yWindow="1598" windowWidth="15390" windowHeight="11422" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Date Colours" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -138,31 +138,46 @@
     <t>#EF7C34</t>
   </si>
   <si>
-    <t>#fbfcff</t>
-  </si>
-  <si>
-    <t>#f8f9ff</t>
-  </si>
-  <si>
-    <t>#f4f6ff</t>
-  </si>
-  <si>
-    <t>#e5ebff</t>
-  </si>
-  <si>
-    <t>#f0f4ff</t>
-  </si>
-  <si>
-    <t>#edf1ff</t>
-  </si>
-  <si>
-    <t>#e9eeff</t>
-  </si>
-  <si>
-    <t>#e1e9ff</t>
-  </si>
-  <si>
-    <t>#dee6ff</t>
+    <t>#fcfcff</t>
+  </si>
+  <si>
+    <t>#f8faff</t>
+  </si>
+  <si>
+    <t>#bdcfff</t>
+  </si>
+  <si>
+    <t>#b5caff</t>
+  </si>
+  <si>
+    <t>#adc5ff</t>
+  </si>
+  <si>
+    <t>#a5c0ff</t>
+  </si>
+  <si>
+    <t>#f5f7ff</t>
+  </si>
+  <si>
+    <t>#f2f5ff</t>
+  </si>
+  <si>
+    <t>#eef2ff</t>
+  </si>
+  <si>
+    <t>#ebf0ff</t>
+  </si>
+  <si>
+    <t>#e7edff</t>
+  </si>
+  <si>
+    <t>#e4eaff</t>
+  </si>
+  <si>
+    <t>#e1e8ff</t>
+  </si>
+  <si>
+    <t>#dde5ff</t>
   </si>
   <si>
     <t>#dae3ff</t>
@@ -171,61 +186,55 @@
     <t>#d6e0ff</t>
   </si>
   <si>
-    <t>#d2ddff</t>
-  </si>
-  <si>
-    <t>#cedbff</t>
-  </si>
-  <si>
-    <t>#cad8ff</t>
-  </si>
-  <si>
-    <t>#c6d5ff</t>
-  </si>
-  <si>
-    <t>#c2d3ff</t>
-  </si>
-  <si>
-    <t>#bed0ff</t>
-  </si>
-  <si>
-    <t>#bacdff</t>
-  </si>
-  <si>
-    <t>#b6caff</t>
-  </si>
-  <si>
-    <t>#b2c8ff</t>
-  </si>
-  <si>
-    <t>#adc5ff</t>
-  </si>
-  <si>
-    <t>#a9c2ff</t>
-  </si>
-  <si>
-    <t>#a5c0ff</t>
-  </si>
-  <si>
-    <t>#a0bdff</t>
-  </si>
-  <si>
-    <t>#9cbaff</t>
-  </si>
-  <si>
-    <t>#97b8ff</t>
-  </si>
-  <si>
-    <t>#92b5ff</t>
-  </si>
-  <si>
-    <t>#8eb3ff</t>
-  </si>
-  <si>
-    <t>#89b0ff</t>
-  </si>
-  <si>
-    <t>#83adff</t>
+    <t>#d2deff</t>
+  </si>
+  <si>
+    <t>#cfdbff</t>
+  </si>
+  <si>
+    <t>#cbd9ff</t>
+  </si>
+  <si>
+    <t>#c8d6ff</t>
+  </si>
+  <si>
+    <t>#c4d4ff</t>
+  </si>
+  <si>
+    <t>#c0d1ff</t>
+  </si>
+  <si>
+    <t>#b9ccff</t>
+  </si>
+  <si>
+    <t>#b1c7ff</t>
+  </si>
+  <si>
+    <t>#a9c3ff</t>
+  </si>
+  <si>
+    <t>#a1beff</t>
+  </si>
+  <si>
+    <t>#9dbbff</t>
+  </si>
+  <si>
+    <t>#99b9ff</t>
+  </si>
+  <si>
+    <t>#95b6ff</t>
+  </si>
+  <si>
+    <t>#90b4ff</t>
+  </si>
+  <si>
+    <t>#8cb2ff</t>
+  </si>
+  <si>
+    <t>#87afff</t>
+  </si>
+  <si>
+    <t>#82adff</t>
   </si>
   <si>
     <t>#7eabff</t>
@@ -234,34 +243,37 @@
     <t>#79a8ff</t>
   </si>
   <si>
-    <t>#73a6ff</t>
-  </si>
-  <si>
-    <t>#6da3ff</t>
-  </si>
-  <si>
-    <t>#67a1ff</t>
-  </si>
-  <si>
-    <t>#619eff</t>
-  </si>
-  <si>
-    <t>#5a9cff</t>
-  </si>
-  <si>
-    <t>#5299ff</t>
-  </si>
-  <si>
-    <t>#4a97ff</t>
-  </si>
-  <si>
-    <t>#4094ff</t>
-  </si>
-  <si>
-    <t>#3592ff</t>
-  </si>
-  <si>
-    <t>#278fff</t>
+    <t>#74a6ff</t>
+  </si>
+  <si>
+    <t>#6ea4ff</t>
+  </si>
+  <si>
+    <t>#69a1ff</t>
+  </si>
+  <si>
+    <t>#639fff</t>
+  </si>
+  <si>
+    <t>#5c9dff</t>
+  </si>
+  <si>
+    <t>#569aff</t>
+  </si>
+  <si>
+    <t>#4f98ff</t>
+  </si>
+  <si>
+    <t>#4796ff</t>
+  </si>
+  <si>
+    <t>#3e94ff</t>
+  </si>
+  <si>
+    <t>#3391ff</t>
+  </si>
+  <si>
+    <t>#268fff</t>
   </si>
 </sst>
 </file>
@@ -694,7 +706,7 @@
         <v>44365</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -708,7 +720,7 @@
         <v>44366</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -722,7 +734,7 @@
         <v>44367</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -736,7 +748,7 @@
         <v>44368</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -750,7 +762,7 @@
         <v>44369</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -764,7 +776,7 @@
         <v>44370</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -778,7 +790,7 @@
         <v>44371</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -792,7 +804,7 @@
         <v>44372</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -806,7 +818,7 @@
         <v>44373</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -820,7 +832,7 @@
         <v>44374</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -834,7 +846,7 @@
         <v>44375</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -848,7 +860,7 @@
         <v>44376</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -862,7 +874,7 @@
         <v>44377</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -876,7 +888,7 @@
         <v>44378</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -890,7 +902,7 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -904,7 +916,7 @@
         <v>44380</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -918,7 +930,7 @@
         <v>44381</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -932,7 +944,7 @@
         <v>44382</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -946,7 +958,7 @@
         <v>44383</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -960,7 +972,7 @@
         <v>44384</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -974,7 +986,7 @@
         <v>44385</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -988,7 +1000,7 @@
         <v>44386</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1002,7 +1014,7 @@
         <v>44387</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1254,7 +1266,7 @@
         <v>44405</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1267,6 +1279,9 @@
       <c r="A45" s="1">
         <v>44406</v>
       </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
@@ -1278,6 +1293,9 @@
       <c r="A46" s="1">
         <v>44407</v>
       </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -1289,6 +1307,9 @@
       <c r="A47" s="1">
         <v>44408</v>
       </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -1299,6 +1320,9 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44409</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>

--- a/2021-06 New South Wales Outbreak Paths by Area.xlsx
+++ b/2021-06 New South Wales Outbreak Paths by Area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9CF55-6E83-4284-BAA7-F77A48D88189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4C59F-29C0-499A-B8E1-F529B823A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1463" yWindow="1598" windowWidth="15390" windowHeight="11422" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Date Colours" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -138,142 +138,157 @@
     <t>#EF7C34</t>
   </si>
   <si>
-    <t>#fcfcff</t>
-  </si>
-  <si>
-    <t>#f8faff</t>
-  </si>
-  <si>
     <t>#bdcfff</t>
   </si>
   <si>
-    <t>#b5caff</t>
-  </si>
-  <si>
-    <t>#adc5ff</t>
-  </si>
-  <si>
-    <t>#a5c0ff</t>
-  </si>
-  <si>
-    <t>#f5f7ff</t>
-  </si>
-  <si>
-    <t>#f2f5ff</t>
-  </si>
-  <si>
-    <t>#eef2ff</t>
-  </si>
-  <si>
-    <t>#ebf0ff</t>
-  </si>
-  <si>
-    <t>#e7edff</t>
-  </si>
-  <si>
     <t>#e4eaff</t>
   </si>
   <si>
-    <t>#e1e8ff</t>
-  </si>
-  <si>
     <t>#dde5ff</t>
   </si>
   <si>
     <t>#dae3ff</t>
   </si>
   <si>
-    <t>#d6e0ff</t>
-  </si>
-  <si>
-    <t>#d2deff</t>
-  </si>
-  <si>
-    <t>#cfdbff</t>
-  </si>
-  <si>
-    <t>#cbd9ff</t>
-  </si>
-  <si>
-    <t>#c8d6ff</t>
-  </si>
-  <si>
-    <t>#c4d4ff</t>
-  </si>
-  <si>
     <t>#c0d1ff</t>
   </si>
   <si>
-    <t>#b9ccff</t>
-  </si>
-  <si>
-    <t>#b1c7ff</t>
-  </si>
-  <si>
-    <t>#a9c3ff</t>
-  </si>
-  <si>
-    <t>#a1beff</t>
-  </si>
-  <si>
     <t>#9dbbff</t>
   </si>
   <si>
     <t>#99b9ff</t>
   </si>
   <si>
-    <t>#95b6ff</t>
-  </si>
-  <si>
-    <t>#90b4ff</t>
-  </si>
-  <si>
-    <t>#8cb2ff</t>
-  </si>
-  <si>
-    <t>#87afff</t>
-  </si>
-  <si>
-    <t>#82adff</t>
-  </si>
-  <si>
-    <t>#7eabff</t>
-  </si>
-  <si>
-    <t>#79a8ff</t>
-  </si>
-  <si>
-    <t>#74a6ff</t>
-  </si>
-  <si>
-    <t>#6ea4ff</t>
-  </si>
-  <si>
     <t>#69a1ff</t>
   </si>
   <si>
     <t>#639fff</t>
   </si>
   <si>
-    <t>#5c9dff</t>
-  </si>
-  <si>
-    <t>#569aff</t>
-  </si>
-  <si>
-    <t>#4f98ff</t>
-  </si>
-  <si>
-    <t>#4796ff</t>
-  </si>
-  <si>
-    <t>#3e94ff</t>
-  </si>
-  <si>
-    <t>#3391ff</t>
-  </si>
-  <si>
-    <t>#268fff</t>
+    <t>#fcfdff</t>
+  </si>
+  <si>
+    <t>#f9faff</t>
+  </si>
+  <si>
+    <t>#f6f8ff</t>
+  </si>
+  <si>
+    <t>#f3f6ff</t>
+  </si>
+  <si>
+    <t>#f0f3ff</t>
+  </si>
+  <si>
+    <t>#edf1ff</t>
+  </si>
+  <si>
+    <t>#eaefff</t>
+  </si>
+  <si>
+    <t>#e7ecff</t>
+  </si>
+  <si>
+    <t>#e0e8ff</t>
+  </si>
+  <si>
+    <t>#d7e1ff</t>
+  </si>
+  <si>
+    <t>#d4dfff</t>
+  </si>
+  <si>
+    <t>#d0dcff</t>
+  </si>
+  <si>
+    <t>#cddaff</t>
+  </si>
+  <si>
+    <t>#cad8ff</t>
+  </si>
+  <si>
+    <t>#c7d6ff</t>
+  </si>
+  <si>
+    <t>#c3d3ff</t>
+  </si>
+  <si>
+    <t>#b9cdff</t>
+  </si>
+  <si>
+    <t>#b6caff</t>
+  </si>
+  <si>
+    <t>#b2c8ff</t>
+  </si>
+  <si>
+    <t>#afc6ff</t>
+  </si>
+  <si>
+    <t>#abc4ff</t>
+  </si>
+  <si>
+    <t>#a8c2ff</t>
+  </si>
+  <si>
+    <t>#a4bfff</t>
+  </si>
+  <si>
+    <t>#a0bdff</t>
+  </si>
+  <si>
+    <t>#95b7ff</t>
+  </si>
+  <si>
+    <t>#91b5ff</t>
+  </si>
+  <si>
+    <t>#8db2ff</t>
+  </si>
+  <si>
+    <t>#89b0ff</t>
+  </si>
+  <si>
+    <t>#85aeff</t>
+  </si>
+  <si>
+    <t>#80acff</t>
+  </si>
+  <si>
+    <t>#7caaff</t>
+  </si>
+  <si>
+    <t>#77a8ff</t>
+  </si>
+  <si>
+    <t>#73a6ff</t>
+  </si>
+  <si>
+    <t>#6ea3ff</t>
+  </si>
+  <si>
+    <t>#5e9dff</t>
+  </si>
+  <si>
+    <t>#589bff</t>
+  </si>
+  <si>
+    <t>#5299ff</t>
+  </si>
+  <si>
+    <t>#4b97ff</t>
+  </si>
+  <si>
+    <t>#4395ff</t>
+  </si>
+  <si>
+    <t>#3b93ff</t>
+  </si>
+  <si>
+    <t>#3191ff</t>
+  </si>
+  <si>
+    <t>#248fff</t>
   </si>
 </sst>
 </file>
@@ -651,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -678,7 +693,7 @@
         <v>44363</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -692,7 +707,7 @@
         <v>44364</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -706,7 +721,7 @@
         <v>44365</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -720,7 +735,7 @@
         <v>44366</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -734,7 +749,7 @@
         <v>44367</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -748,7 +763,7 @@
         <v>44368</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -762,7 +777,7 @@
         <v>44369</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -776,7 +791,7 @@
         <v>44370</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -790,7 +805,7 @@
         <v>44371</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -804,7 +819,7 @@
         <v>44372</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -818,7 +833,7 @@
         <v>44373</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -832,7 +847,7 @@
         <v>44374</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -846,7 +861,7 @@
         <v>44375</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -860,7 +875,7 @@
         <v>44376</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -874,7 +889,7 @@
         <v>44377</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -888,7 +903,7 @@
         <v>44378</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -902,7 +917,7 @@
         <v>44379</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -916,7 +931,7 @@
         <v>44380</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -930,7 +945,7 @@
         <v>44381</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -944,7 +959,7 @@
         <v>44382</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -958,7 +973,7 @@
         <v>44383</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -972,7 +987,7 @@
         <v>44384</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -986,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1000,7 +1015,7 @@
         <v>44386</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1014,7 +1029,7 @@
         <v>44387</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1028,7 +1043,7 @@
         <v>44388</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1042,7 +1057,7 @@
         <v>44389</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -1056,7 +1071,7 @@
         <v>44390</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -1070,7 +1085,7 @@
         <v>44391</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1084,7 +1099,7 @@
         <v>44392</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -1098,7 +1113,7 @@
         <v>44393</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1112,7 +1127,7 @@
         <v>44394</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1126,7 +1141,7 @@
         <v>44395</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1140,7 +1155,7 @@
         <v>44396</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1154,7 +1169,7 @@
         <v>44397</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1168,7 +1183,7 @@
         <v>44398</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1182,7 +1197,7 @@
         <v>44399</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1196,7 +1211,7 @@
         <v>44400</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -1210,7 +1225,7 @@
         <v>44401</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1224,7 +1239,7 @@
         <v>44402</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -1238,7 +1253,7 @@
         <v>44403</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1252,7 +1267,7 @@
         <v>44404</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1266,7 +1281,7 @@
         <v>44405</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1322,7 +1337,7 @@
         <v>44409</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -1335,6 +1350,9 @@
       <c r="A49" s="1">
         <v>44410</v>
       </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
       <c r="C49" t="s">
         <v>21</v>
       </c>
@@ -1346,6 +1364,9 @@
       <c r="A50" s="1">
         <v>44411</v>
       </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
       <c r="C50" t="s">
         <v>22</v>
       </c>
@@ -1357,6 +1378,9 @@
       <c r="A51" s="1">
         <v>44412</v>
       </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -1368,6 +1392,9 @@
       <c r="A52" s="1">
         <v>44413</v>
       </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
       <c r="C52" t="s">
         <v>26</v>
       </c>
@@ -1378,6 +1405,9 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44414</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
